--- a/Versão Final/Tabelas-Atualizadas.xlsx
+++ b/Versão Final/Tabelas-Atualizadas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Projecto_RC\Versão Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição de postos por sala" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Equipamentos Ativos" sheetId="5" r:id="rId5"/>
     <sheet name="Equipamentos Passivos" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="309">
   <si>
     <t>Desenvolvimento de Software e Aplicações</t>
   </si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Sala de Apoio Informático / Bastidor</t>
-  </si>
-  <si>
-    <t>1 Router / 3 Switches</t>
   </si>
   <si>
     <t>ID</t>
@@ -951,6 +945,18 @@
   </si>
   <si>
     <t>Cat.6</t>
+  </si>
+  <si>
+    <t>3 Switches</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>NETGEAR</t>
+  </si>
+  <si>
+    <t>WNDAP360</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1230,8 @@
       <xdr:rowOff>3206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -1313,7 +1319,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -1402,8 +1408,8 @@
       <xdr:rowOff>18446</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="462947" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1494,7 +1500,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1585,8 +1591,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1674,7 +1680,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1751,8 +1757,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1840,7 +1846,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1917,8 +1923,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CaixaDeTexto 6">
@@ -2006,7 +2012,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CaixaDeTexto 6">
@@ -2083,8 +2089,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 7">
@@ -2172,7 +2178,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 7">
@@ -2261,8 +2267,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="462947" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 8">
@@ -2353,7 +2359,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 8">
@@ -2444,8 +2450,8 @@
       <xdr:rowOff>26066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CaixaDeTexto 10">
@@ -2533,7 +2539,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CaixaDeTexto 10">
@@ -2622,8 +2628,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CaixaDeTexto 11">
@@ -2711,7 +2717,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CaixaDeTexto 11">
@@ -2800,8 +2806,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CaixaDeTexto 12">
@@ -2889,7 +2895,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CaixaDeTexto 12">
@@ -2971,21 +2977,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabela"/>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3081,8 +3072,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela3" displayName="Tabela3" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela3" displayName="Tabela3" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Quantidade"/>
     <tableColumn id="2" name="Nome"/>
@@ -3407,7 +3398,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -3640,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -3926,22 +3917,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,17 +3940,17 @@
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3967,17 +3958,17 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>22</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3985,17 +3976,17 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,17 +3994,17 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4021,17 +4012,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4039,17 +4030,17 @@
         <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4057,17 +4048,17 @@
         <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,17 +4066,17 @@
         <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,17 +4084,17 @@
         <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,46 +4102,46 @@
         <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5">
         <v>44</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4158,28 +4149,28 @@
         <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,28 +4178,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4216,19 +4207,19 @@
         <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -4239,19 +4230,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4262,19 +4253,19 @@
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -4285,19 +4276,19 @@
         <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -4308,19 +4299,19 @@
         <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -4331,19 +4322,19 @@
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -4354,19 +4345,19 @@
         <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -4377,19 +4368,19 @@
         <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4410,7 +4401,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,39 +4418,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1">
         <v>22</v>
@@ -4473,16 +4464,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -4496,16 +4487,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -4519,16 +4510,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -4542,10 +4533,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
@@ -4565,16 +4556,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -4588,10 +4579,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>70</v>
@@ -4603,10 +4594,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>80</v>
@@ -4626,10 +4617,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1">
         <v>90</v>
@@ -4643,16 +4634,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>99</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -4666,7 +4657,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4697,31 +4688,31 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
       <c r="I1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>276</v>
-      </c>
-      <c r="K1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4729,28 +4720,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4758,28 +4749,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4787,28 +4778,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="11">
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4816,31 +4807,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="10">
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" t="s">
         <v>281</v>
-      </c>
-      <c r="K5" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4848,20 +4839,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4869,20 +4860,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4890,20 +4881,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" t="s">
         <v>285</v>
-      </c>
-      <c r="J8" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,23 +4902,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" t="s">
         <v>287</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>288</v>
-      </c>
-      <c r="K9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4935,22 +4926,22 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4958,22 +4949,22 @@
         <v>1.2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4981,22 +4972,22 @@
         <v>1.2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="14">
         <v>9</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5004,22 +4995,22 @@
         <v>1.2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="10">
         <v>10</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5027,14 +5018,14 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5042,14 +5033,14 @@
         <v>1.2</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5057,14 +5048,14 @@
         <v>1.2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5072,14 +5063,14 @@
         <v>1.2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5087,22 +5078,22 @@
         <v>1.3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="1">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5110,22 +5101,22 @@
         <v>1.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5133,22 +5124,22 @@
         <v>1.3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="1">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5156,22 +5147,22 @@
         <v>1.3</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" s="10">
         <v>14</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5179,14 +5170,14 @@
         <v>1.3</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,14 +5185,14 @@
         <v>1.3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5209,14 +5200,14 @@
         <v>1.3</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5224,14 +5215,14 @@
         <v>1.3</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5239,22 +5230,22 @@
         <v>1.4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5262,22 +5253,22 @@
         <v>1.4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1">
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5285,22 +5276,22 @@
         <v>1.4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="1">
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5308,22 +5299,22 @@
         <v>1.4</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" s="10">
         <v>18</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5331,14 +5322,14 @@
         <v>1.4</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5346,14 +5337,14 @@
         <v>1.4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5361,14 +5352,14 @@
         <v>1.4</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,14 +5367,14 @@
         <v>1.4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5391,22 +5382,22 @@
         <v>1.5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1">
         <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5414,22 +5405,22 @@
         <v>1.5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="10">
         <v>20</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5437,14 +5428,14 @@
         <v>1.5</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -5452,14 +5443,14 @@
         <v>1.5</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5467,22 +5458,22 @@
         <v>1.6</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5490,22 +5481,22 @@
         <v>1.6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,22 +5504,22 @@
         <v>1.6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5536,22 +5527,22 @@
         <v>1.6</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="10">
         <v>6</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5559,14 +5550,14 @@
         <v>1.6</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,14 +5565,14 @@
         <v>1.6</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5589,14 +5580,14 @@
         <v>1.6</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -5604,14 +5595,14 @@
         <v>1.6</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5619,22 +5610,22 @@
         <v>1.7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5642,22 +5633,22 @@
         <v>1.7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5665,22 +5656,22 @@
         <v>1.7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="1">
         <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5688,22 +5679,22 @@
         <v>1.7</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" s="10">
         <v>10</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5711,22 +5702,22 @@
         <v>1.7</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E50" s="9">
         <v>11</v>
       </c>
       <c r="F50" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,22 +5725,22 @@
         <v>1.7</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="10">
         <v>12</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5757,14 +5748,14 @@
         <v>1.7</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5772,14 +5763,14 @@
         <v>1.7</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5787,14 +5778,14 @@
         <v>1.7</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5802,14 +5793,14 @@
         <v>1.7</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5817,22 +5808,22 @@
         <v>1.8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E56" s="1">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5840,22 +5831,22 @@
         <v>1.8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E57" s="1">
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,22 +5854,22 @@
         <v>1.8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" s="1">
         <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5886,22 +5877,22 @@
         <v>1.8</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="10">
         <v>16</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5909,14 +5900,14 @@
         <v>1.8</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5924,14 +5915,14 @@
         <v>1.8</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5939,14 +5930,14 @@
         <v>1.8</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,14 +5945,14 @@
         <v>1.8</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5969,22 +5960,22 @@
         <v>1.9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E64" s="1">
         <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -5992,22 +5983,22 @@
         <v>1.9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E65" s="1">
         <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -6015,22 +6006,22 @@
         <v>1.9</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E66" s="9">
         <v>19</v>
       </c>
       <c r="F66" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6038,22 +6029,22 @@
         <v>1.9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E67" s="10">
         <v>20</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -6061,14 +6052,14 @@
         <v>1.9</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -6076,14 +6067,14 @@
         <v>1.9</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,14 +6082,14 @@
         <v>1.9</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -6106,14 +6097,14 @@
         <v>1.9</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -6121,22 +6112,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -6144,22 +6135,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6167,22 +6158,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E74" s="9">
         <v>5</v>
       </c>
       <c r="F74" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -6190,22 +6181,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E75" s="10">
         <v>6</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -6213,14 +6204,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6228,14 +6219,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,14 +6234,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6258,14 +6249,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,22 +6264,22 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,22 +6287,22 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E81" s="1">
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,22 +6310,22 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E82" s="1">
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,22 +6333,22 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E83" s="10">
         <v>8</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,14 +6356,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6380,14 +6371,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6395,14 +6386,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6410,14 +6401,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,22 +6416,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E88" s="1">
         <v>9</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,22 +6439,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -6471,22 +6462,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="9">
         <v>11</v>
       </c>
       <c r="F90" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6494,22 +6485,22 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E91" s="10">
         <v>12</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,14 +6508,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,14 +6523,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,14 +6538,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -6562,14 +6553,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6577,22 +6568,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" s="1">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6600,22 +6591,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E97" s="1">
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -6623,22 +6614,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E98" s="1">
         <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6646,22 +6637,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E99" s="1">
         <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6669,22 +6660,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E100" s="9">
         <v>17</v>
       </c>
       <c r="F100" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,22 +6683,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E101" s="10">
         <v>18</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -6715,22 +6706,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E102" s="9">
         <v>19</v>
       </c>
       <c r="F102" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -6738,22 +6729,22 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E103" s="10">
         <v>20</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,14 +6752,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="G104" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,14 +6767,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
       <c r="G105" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -6791,22 +6782,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -6814,22 +6805,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E107" s="1">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -6837,22 +6828,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -6860,22 +6851,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E109" s="10">
         <v>6</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -6883,22 +6874,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E110" s="9">
         <v>7</v>
       </c>
       <c r="F110" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G110" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -6906,22 +6897,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="E111" s="10">
         <v>8</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -6929,22 +6920,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E112" s="1">
         <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -6952,22 +6943,22 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E113" s="1">
         <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6975,7 +6966,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
@@ -6988,7 +6979,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -7001,22 +6992,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E116" s="9">
         <v>11</v>
       </c>
       <c r="F116" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G116" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -7024,22 +7015,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E117" s="10">
         <v>12</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7047,22 +7038,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E118" s="9">
         <v>13</v>
       </c>
       <c r="F118" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G118" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,22 +7061,22 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E119" s="10">
         <v>14</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7093,14 +7084,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -7108,14 +7099,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7123,14 +7114,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
       <c r="G122" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,14 +7129,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
       <c r="G123" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,22 +7144,22 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E124" s="9">
         <v>15</v>
       </c>
       <c r="F124" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G124" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,22 +7167,22 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E125" s="10">
         <v>16</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -7199,22 +7190,22 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E126" s="1">
         <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7222,22 +7213,22 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E127" s="10">
         <v>18</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,22 +7236,22 @@
         <v>1.17</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E128" s="9">
         <v>19</v>
       </c>
       <c r="F128" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7268,22 +7259,22 @@
         <v>1.17</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E129" s="10">
         <v>20</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -7291,22 +7282,22 @@
         <v>1.17</v>
       </c>
       <c r="B130" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="E130" s="9">
         <v>3</v>
       </c>
       <c r="F130" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G130" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -7314,22 +7305,22 @@
         <v>1.17</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E131" s="10">
         <v>4</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7337,22 +7328,22 @@
         <v>1.17</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E132" s="9">
         <v>5</v>
       </c>
       <c r="F132" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G132" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,22 +7351,22 @@
         <v>1.17</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E133" s="10">
         <v>6</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7383,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7410,19 +7401,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>292</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>293</v>
-      </c>
-      <c r="E1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7430,10 +7421,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2">
         <v>1841</v>
@@ -7444,22 +7435,37 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" t="s">
         <v>295</v>
       </c>
-      <c r="D3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" t="s">
-        <v>296</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7468,7 +7474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -7482,16 +7488,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
         <v>290</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>291</v>
       </c>
-      <c r="C1" t="s">
-        <v>292</v>
-      </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7499,24 +7505,24 @@
         <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
         <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
         <v>304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7524,10 +7530,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,10 +7541,10 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7546,10 +7552,10 @@
         <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7557,10 +7563,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Versão Final/Tabelas-Atualizadas.xlsx
+++ b/Versão Final/Tabelas-Atualizadas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\Documents\Projectos\Escola\Projecto_RC\Versão Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Distribuição de postos por sala" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Equipamentos Ativos" sheetId="5" r:id="rId5"/>
     <sheet name="Equipamentos Passivos" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="299">
   <si>
     <t>Desenvolvimento de Software e Aplicações</t>
   </si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Sala de Apoio Informático / Bastidor</t>
-  </si>
-  <si>
-    <t>1 Router / 3 Switches</t>
   </si>
   <si>
     <t>ID</t>
@@ -374,9 +368,6 @@
     <t>VLAN ID</t>
   </si>
   <si>
-    <t>Salas</t>
-  </si>
-  <si>
     <t>Número de PC's</t>
   </si>
   <si>
@@ -386,33 +377,15 @@
     <t>Número total com folga</t>
   </si>
   <si>
-    <t>6 e 7</t>
-  </si>
-  <si>
-    <t>5 e 17</t>
-  </si>
-  <si>
     <t>voip</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 11 , 12 , 13 e 14</t>
-  </si>
-  <si>
     <t>nº total de tomadas duplas(incluindo folga) * 2</t>
   </si>
   <si>
-    <t>9 e 10</t>
-  </si>
-  <si>
-    <t>18 e 19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sala da secção comercial </t>
   </si>
   <si>
-    <t>10 e 16</t>
-  </si>
-  <si>
     <t>Tomada</t>
   </si>
   <si>
@@ -951,6 +924,9 @@
   </si>
   <si>
     <t>Cat.6</t>
+  </si>
+  <si>
+    <t>3 Switches</t>
   </si>
 </sst>
 </file>
@@ -972,18 +948,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1022,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,33 +1013,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1101,15 +1070,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1224,8 +1184,8 @@
       <xdr:rowOff>3206</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -1313,7 +1273,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -1402,8 +1362,8 @@
       <xdr:rowOff>18446</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="462947" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1494,7 +1454,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1585,8 +1545,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1674,7 +1634,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1751,8 +1711,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1840,7 +1800,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1917,8 +1877,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="437236" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CaixaDeTexto 6">
@@ -2006,7 +1966,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CaixaDeTexto 6">
@@ -2083,8 +2043,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 7">
@@ -2172,7 +2132,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 7">
@@ -2261,8 +2221,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="462947" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 8">
@@ -2353,7 +2313,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 8">
@@ -2444,8 +2404,8 @@
       <xdr:rowOff>26066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CaixaDeTexto 10">
@@ -2533,7 +2493,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="CaixaDeTexto 10">
@@ -2622,8 +2582,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CaixaDeTexto 11">
@@ -2711,7 +2671,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="CaixaDeTexto 11">
@@ -2800,8 +2760,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="538032" cy="174663"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CaixaDeTexto 12">
@@ -2889,7 +2849,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="CaixaDeTexto 12">
@@ -2973,77 +2933,61 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabela"/>
-      <sheetName val="Opções"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1" displayName="Tabela1" ref="A1:F23" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela1" displayName="Tabela1" ref="A1:F23" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Número Sala" dataDxfId="39"/>
-    <tableColumn id="2" name="Sala" dataDxfId="38"/>
-    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="37"/>
-    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="36"/>
-    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="35"/>
-    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="34"/>
+    <tableColumn id="1" name="Número Sala" dataDxfId="38"/>
+    <tableColumn id="2" name="Sala" dataDxfId="37"/>
+    <tableColumn id="3" name="Postos de Trabalho" dataDxfId="36"/>
+    <tableColumn id="4" name="Outros Equipamentos" dataDxfId="35"/>
+    <tableColumn id="5" name="Número de Tomadas Duplas (incluindo folgas)" dataDxfId="34"/>
+    <tableColumn id="6" name="Número de Portas ligadas aos Switches" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela710" displayName="Tabela710" ref="A1:F11" totalsRowShown="0" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela710" displayName="Tabela710" ref="A1:F11" totalsRowShown="0" dataDxfId="32">
   <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="32"/>
-    <tableColumn id="2" name="VLAN" dataDxfId="31"/>
-    <tableColumn id="3" name="Nome vlan" dataDxfId="30"/>
-    <tableColumn id="4" name="Nº de Equipamentos a Endereçar" dataDxfId="29"/>
-    <tableColumn id="5" name="BASE 2" dataDxfId="28"/>
-    <tableColumn id="6" name="Prefix Network" dataDxfId="27"/>
+    <tableColumn id="1" name="ID" dataDxfId="31"/>
+    <tableColumn id="2" name="VLAN" dataDxfId="30"/>
+    <tableColumn id="3" name="Nome vlan" dataDxfId="29"/>
+    <tableColumn id="4" name="Nº de Equipamentos a Endereçar" dataDxfId="28"/>
+    <tableColumn id="5" name="BASE 2" dataDxfId="27"/>
+    <tableColumn id="6" name="Prefix Network" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela811" displayName="Tabela811" ref="A14:I24" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela811" displayName="Tabela811" ref="A14:I24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A14:I24"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="VLAN" dataDxfId="24"/>
-    <tableColumn id="2" name="Endereço de Rede" dataDxfId="23"/>
-    <tableColumn id="3" name="Máscara" dataDxfId="22"/>
-    <tableColumn id="4" name="Host Minínimo / _x000a_default gateway" dataDxfId="21"/>
-    <tableColumn id="5" name="Host Máximo" dataDxfId="20"/>
-    <tableColumn id="6" name="Endereço de Broadcast" dataDxfId="19"/>
-    <tableColumn id="7" name="Bits usados" dataDxfId="18"/>
-    <tableColumn id="8" name="Endereço Min. (binário)" dataDxfId="17"/>
-    <tableColumn id="9" name="Endereço Max. (binário)" dataDxfId="16"/>
+    <tableColumn id="1" name="VLAN" dataDxfId="23"/>
+    <tableColumn id="2" name="Endereço de Rede" dataDxfId="22"/>
+    <tableColumn id="3" name="Máscara" dataDxfId="21"/>
+    <tableColumn id="4" name="Host Minínimo / _x000a_default gateway" dataDxfId="20"/>
+    <tableColumn id="5" name="Host Máximo" dataDxfId="19"/>
+    <tableColumn id="6" name="Endereço de Broadcast" dataDxfId="18"/>
+    <tableColumn id="7" name="Bits usados" dataDxfId="17"/>
+    <tableColumn id="8" name="Endereço Min. (binário)" dataDxfId="16"/>
+    <tableColumn id="9" name="Endereço Max. (binário)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela13" displayName="Tabela13" ref="A1:G11" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:G11"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Descrição da VLAN" dataDxfId="14"/>
-    <tableColumn id="2" name="Nome da VLAN" dataDxfId="13"/>
-    <tableColumn id="3" name="VLAN ID" dataDxfId="12"/>
-    <tableColumn id="4" name="Salas" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela13" displayName="Tabela13" ref="A1:F11" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:F11"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Descrição da VLAN" dataDxfId="13"/>
+    <tableColumn id="2" name="Nome da VLAN" dataDxfId="12"/>
+    <tableColumn id="3" name="VLAN ID" dataDxfId="11"/>
     <tableColumn id="5" name="Número de PC's" dataDxfId="10"/>
     <tableColumn id="6" name="Número de outros equipamentos" dataDxfId="9"/>
     <tableColumn id="7" name="Número total com folga" dataDxfId="8"/>
@@ -3108,7 +3052,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3407,20 +3351,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.5546875" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +3384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3461,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3482,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3503,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3524,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3545,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3566,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3587,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3608,12 +3552,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -3629,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3640,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -3650,7 +3594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3671,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3692,7 +3636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3713,7 +3657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3734,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3755,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3776,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3797,7 +3741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3818,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3838,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3858,7 +3802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3878,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -3912,484 +3856,487 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>22</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>5</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5">
         <v>44</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -4410,263 +4357,234 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>120</v>
+      <c r="D2" s="1">
+        <v>22</v>
       </c>
       <c r="E2" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>117</v>
+      <c r="D3" s="1">
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>122</v>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>123</v>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>118</v>
+      <c r="D7" s="1">
+        <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>70</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="10">
-        <v>20</v>
+      <c r="D9" s="1">
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1">
         <v>90</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>44</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>99</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>125</v>
+      <c r="D11" s="1">
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4685,2697 +4603,2697 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" customWidth="1"/>
     <col min="11" max="11" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="10">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K9" t="s">
         <v>281</v>
       </c>
-      <c r="K5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" t="s">
-        <v>285</v>
-      </c>
-      <c r="J8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" t="s">
-        <v>287</v>
-      </c>
-      <c r="J9" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>1.2</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="13">
+        <v>9</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="14">
-        <v>9</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>1.2</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>1.2</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="B16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>1.2</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1">
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1">
         <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>1.3</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="9">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="10">
-        <v>14</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>1.3</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="B23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>1.3</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="B24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>1.3</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1.4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1.4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1">
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1.4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>1.4</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="9">
+        <v>18</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="10">
-        <v>18</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>1.4</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="B31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>1.4</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="B32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>1.4</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1.5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1">
         <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>1.5</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="9">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="10">
-        <v>20</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>1.5</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1.6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1.6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1.6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>1.6</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="B41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="9">
         <v>6</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="F41" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
         <v>1.6</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="B42" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
         <v>1.6</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="B43" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
         <v>1.6</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="B44" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
         <v>1.6</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1.7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1.7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1.7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E48" s="1">
         <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>1.7</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E49" s="10">
+      <c r="B49" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="9">
         <v>10</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="F49" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>1.7</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="9">
+      <c r="B50" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="8">
         <v>11</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="F50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>1.7</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="B51" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="9">
         <v>12</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="F51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
         <v>1.7</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="B52" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>1.7</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="B53" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <v>1.7</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="B54" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
         <v>1.7</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1.8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E56" s="1">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1.8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E57" s="1">
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1.8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E58" s="1">
         <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>1.8</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>196</v>
+      <c r="B59" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E59" s="10">
+        <v>167</v>
+      </c>
+      <c r="E59" s="9">
         <v>16</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="F59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
         <v>1.8</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="B60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
         <v>1.8</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="B61" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
         <v>1.8</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="B62" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
         <v>1.8</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1.9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E64" s="1">
         <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1.9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E65" s="1">
         <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>1.9</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="9">
+      <c r="B66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="8">
         <v>19</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="F66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
         <v>1.9</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="10">
+      <c r="B67" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="9">
         <v>20</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="F67" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
         <v>1.9</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="B68" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
         <v>1.9</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="B69" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
         <v>1.9</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="B70" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
         <v>1.9</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="9">
+      <c r="B74" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="8">
         <v>5</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="F74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="B75" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="9">
         <v>6</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="F75" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+      <c r="B76" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="12">
+      <c r="B77" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
+      <c r="B78" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1.1100000000000001</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1.1100000000000001</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1">
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1.1100000000000001</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E82" s="1">
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E83" s="10">
+      <c r="B83" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E83" s="9">
         <v>8</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="12">
+      <c r="F83" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="12">
+      <c r="B84" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="B85" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12">
+      <c r="B86" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1.1200000000000001</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E88" s="1">
         <v>9</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1.1200000000000001</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E89" s="1">
         <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" s="9">
+      <c r="B90" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E90" s="8">
         <v>11</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10">
+      <c r="F90" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="B91" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="9">
         <v>12</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
+      <c r="F91" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="12">
+      <c r="B92" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="B93" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="B94" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E96" s="1">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E97" s="1">
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E98" s="1">
         <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E99" s="1">
         <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="9">
+      <c r="B100" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E100" s="8">
         <v>17</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="10">
+      <c r="F100" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" s="10">
+      <c r="B101" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E101" s="9">
         <v>18</v>
       </c>
-      <c r="F101" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="F101" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" s="9">
+      <c r="B102" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="8">
         <v>19</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
+      <c r="F102" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E103" s="10">
+      <c r="B103" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="9">
         <v>20</v>
       </c>
-      <c r="F103" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="15">
+      <c r="F103" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="15">
+      <c r="B104" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E107" s="1">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E109" s="10">
+      <c r="B109" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="9">
         <v>6</v>
       </c>
-      <c r="F109" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="F109" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E110" s="9">
+      <c r="B110" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="8">
         <v>7</v>
       </c>
-      <c r="F110" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="10">
+      <c r="F110" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E111" s="10">
+      <c r="B111" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="9">
         <v>8</v>
       </c>
-      <c r="F111" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E112" s="1">
         <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1.1399999999999999</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E113" s="1">
         <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" s="8">
+        <v>11</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117" s="9">
+        <v>12</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="8">
+        <v>13</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="9">
+        <v>14</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B115" s="12" t="s">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B116" s="9" t="s">
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E116" s="9">
-        <v>11</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="10">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B117" s="10" t="s">
+      <c r="C124" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124" s="8">
+        <v>15</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E117" s="10">
-        <v>12</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E118" s="9">
-        <v>13</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="10">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E119" s="10">
-        <v>14</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="15">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="12">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="15">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E124" s="9">
-        <v>15</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E125" s="10">
+      <c r="C125" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E125" s="9">
         <v>16</v>
       </c>
-      <c r="F125" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F125" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>1.1599999999999999</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E126" s="1">
         <v>17</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E127" s="10">
+      <c r="B127" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E127" s="9">
         <v>18</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
+      <c r="F127" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
         <v>1.17</v>
       </c>
-      <c r="B128" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E128" s="9">
+      <c r="B128" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128" s="8">
         <v>19</v>
       </c>
-      <c r="F128" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
+      <c r="F128" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
         <v>1.17</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E129" s="10">
+      <c r="B129" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E129" s="9">
         <v>20</v>
       </c>
-      <c r="F129" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
+      <c r="F129" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="8">
         <v>1.17</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E130" s="9">
+      <c r="B130" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E130" s="8">
         <v>3</v>
       </c>
-      <c r="F130" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
+      <c r="F130" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
         <v>1.17</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E131" s="10">
+      <c r="B131" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" s="9">
         <v>4</v>
       </c>
-      <c r="F131" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
+      <c r="F131" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="8">
         <v>1.17</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E132" s="9">
+      <c r="B132" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" s="8">
         <v>5</v>
       </c>
-      <c r="F132" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
+      <c r="F132" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="9">
         <v>1.17</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E133" s="10">
+      <c r="B133" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E133" s="9">
         <v>6</v>
       </c>
-      <c r="F133" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>138</v>
+      <c r="F133" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7394,66 +7312,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" t="s">
-        <v>295</v>
-      </c>
       <c r="D2">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7468,99 +7386,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" t="s">
         <v>297</v>
       </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
